--- a/data/171024/10_0St_CL/10_0St_CL-recovery-3.xlsx
+++ b/data/171024/10_0St_CL/10_0St_CL-recovery-3.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="_10_0St_CL_recovery_3.rwd"/>
   </sheets>
   <definedNames>
-    <definedName name="_10_0St_CL_recovery_3.rwd">'_10_0St_CL_recovery_3.rwd'!$A$1:$P$207</definedName>
+    <definedName name="_10_0St_CL_recovery_3.rwd">'_10_0St_CL_recovery_3.rwd'!$A$1:$Q$207</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -343,7 +343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P207"/>
+  <dimension ref="A1:Q207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -432,6 +432,11 @@
           <t>T in °C</t>
         </is>
       </c>
+      <c r="Q1" s="0" t="inlineStr">
+        <is>
+          <t>|G*| in Pa</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="2">
       <c r="A2" s="0" t="inlineStr">
@@ -1467,6 +1472,9 @@
       <c r="P31" s="0">
         <v>36.9998413085938</v>
       </c>
+      <c r="Q31" s="0">
+        <v>939.357177734375</v>
+      </c>
     </row>
     <row outlineLevel="0" r="32">
       <c r="A32" s="0" t="inlineStr">
@@ -1516,6 +1524,9 @@
       <c r="P32" s="0">
         <v>37.0005432128906</v>
       </c>
+      <c r="Q32" s="0">
+        <v>924.638916015625</v>
+      </c>
     </row>
     <row outlineLevel="0" r="33">
       <c r="A33" s="0" t="inlineStr">
@@ -1565,6 +1576,9 @@
       <c r="P33" s="0">
         <v>37.0006958007813</v>
       </c>
+      <c r="Q33" s="0">
+        <v>914.286499023438</v>
+      </c>
     </row>
     <row outlineLevel="0" r="34">
       <c r="A34" s="0" t="inlineStr">
@@ -1614,6 +1628,9 @@
       <c r="P34" s="0">
         <v>36.9991088867188</v>
       </c>
+      <c r="Q34" s="0">
+        <v>913.923095703125</v>
+      </c>
     </row>
     <row outlineLevel="0" r="35">
       <c r="A35" s="0" t="inlineStr">
@@ -1663,6 +1680,9 @@
       <c r="P35" s="0">
         <v>37.0014282226563</v>
       </c>
+      <c r="Q35" s="0">
+        <v>914.106811523438</v>
+      </c>
     </row>
     <row outlineLevel="0" r="36">
       <c r="A36" s="0" t="inlineStr">
@@ -1712,6 +1732,9 @@
       <c r="P36" s="0">
         <v>37.0006958007813</v>
       </c>
+      <c r="Q36" s="0">
+        <v>916.045104980469</v>
+      </c>
     </row>
     <row outlineLevel="0" r="37">
       <c r="A37" s="0" t="inlineStr">
@@ -1761,6 +1784,9 @@
       <c r="P37" s="0">
         <v>36.9983764648438</v>
       </c>
+      <c r="Q37" s="0">
+        <v>918.629089355469</v>
+      </c>
     </row>
     <row outlineLevel="0" r="38">
       <c r="A38" s="0" t="inlineStr">
@@ -1810,6 +1836,9 @@
       <c r="P38" s="0">
         <v>37.0010620117188</v>
       </c>
+      <c r="Q38" s="0">
+        <v>921.21337890625</v>
+      </c>
     </row>
     <row outlineLevel="0" r="39">
       <c r="A39" s="0" t="inlineStr">
@@ -1859,6 +1888,9 @@
       <c r="P39" s="0">
         <v>37.0006958007813</v>
       </c>
+      <c r="Q39" s="0">
+        <v>926.442077636719</v>
+      </c>
     </row>
     <row outlineLevel="0" r="40">
       <c r="A40" s="0" t="inlineStr">
@@ -1908,6 +1940,9 @@
       <c r="P40" s="0">
         <v>37.0000854492188</v>
       </c>
+      <c r="Q40" s="0">
+        <v>934.236328125</v>
+      </c>
     </row>
     <row outlineLevel="0" r="41">
       <c r="A41" s="0" t="inlineStr">
@@ -1957,6 +1992,9 @@
       <c r="P41" s="0">
         <v>37.0012451171875</v>
       </c>
+      <c r="Q41" s="0">
+        <v>939.701354980469</v>
+      </c>
     </row>
     <row outlineLevel="0" r="42">
       <c r="A42" s="0" t="inlineStr">
@@ -2006,6 +2044,9 @@
       <c r="P42" s="0">
         <v>37.0017944335938</v>
       </c>
+      <c r="Q42" s="0">
+        <v>947.2373046875</v>
+      </c>
     </row>
     <row outlineLevel="0" r="43">
       <c r="A43" s="0" t="inlineStr">
@@ -2055,6 +2096,9 @@
       <c r="P43" s="0">
         <v>36.9997192382813</v>
       </c>
+      <c r="Q43" s="0">
+        <v>954.121032714844</v>
+      </c>
     </row>
     <row outlineLevel="0" r="44">
       <c r="A44" s="0" t="inlineStr">
@@ -2104,6 +2148,9 @@
       <c r="P44" s="0">
         <v>36.9999633789063</v>
       </c>
+      <c r="Q44" s="0">
+        <v>961.479064941406</v>
+      </c>
     </row>
     <row outlineLevel="0" r="45">
       <c r="A45" s="0" t="inlineStr">
@@ -2153,6 +2200,9 @@
       <c r="P45" s="0">
         <v>36.9989562988281</v>
       </c>
+      <c r="Q45" s="0">
+        <v>969.477905273438</v>
+      </c>
     </row>
     <row outlineLevel="0" r="46">
       <c r="A46" s="0" t="inlineStr">
@@ -2202,6 +2252,9 @@
       <c r="P46" s="0">
         <v>37.0013671875</v>
       </c>
+      <c r="Q46" s="0">
+        <v>978.293334960938</v>
+      </c>
     </row>
     <row outlineLevel="0" r="47">
       <c r="A47" s="0" t="inlineStr">
@@ -2251,6 +2304,9 @@
       <c r="P47" s="0">
         <v>37.0012756347656</v>
       </c>
+      <c r="Q47" s="0">
+        <v>988.091003417969</v>
+      </c>
     </row>
     <row outlineLevel="0" r="48">
       <c r="A48" s="0" t="inlineStr">
@@ -2300,6 +2356,9 @@
       <c r="P48" s="0">
         <v>37.000390625</v>
       </c>
+      <c r="Q48" s="0">
+        <v>996.021362304688</v>
+      </c>
     </row>
     <row outlineLevel="0" r="49">
       <c r="A49" s="0" t="inlineStr">
@@ -2349,6 +2408,9 @@
       <c r="P49" s="0">
         <v>37.0000549316406</v>
       </c>
+      <c r="Q49" s="0">
+        <v>1009.73944091797</v>
+      </c>
     </row>
     <row outlineLevel="0" r="50">
       <c r="A50" s="0" t="inlineStr">
@@ -2398,6 +2460,9 @@
       <c r="P50" s="0">
         <v>37.0015197753906</v>
       </c>
+      <c r="Q50" s="0">
+        <v>1027.625</v>
+      </c>
     </row>
     <row outlineLevel="0" r="51">
       <c r="A51" s="0" t="inlineStr">
@@ -2447,6 +2512,9 @@
       <c r="P51" s="0">
         <v>37.0001159667969</v>
       </c>
+      <c r="Q51" s="0">
+        <v>1043.97497558594</v>
+      </c>
     </row>
     <row outlineLevel="0" r="52">
       <c r="A52" s="0" t="inlineStr">
@@ -2496,6 +2564,9 @@
       <c r="P52" s="0">
         <v>36.9995361328125</v>
       </c>
+      <c r="Q52" s="0">
+        <v>1051.54077148438</v>
+      </c>
     </row>
     <row outlineLevel="0" r="53">
       <c r="A53" s="0" t="inlineStr">
@@ -2545,6 +2616,9 @@
       <c r="P53" s="0">
         <v>36.9988647460938</v>
       </c>
+      <c r="Q53" s="0">
+        <v>1081.84155273438</v>
+      </c>
     </row>
     <row outlineLevel="0" r="54">
       <c r="A54" s="0" t="inlineStr">
@@ -2594,6 +2668,9 @@
       <c r="P54" s="0">
         <v>36.9980102539063</v>
       </c>
+      <c r="Q54" s="0">
+        <v>1112.146484375</v>
+      </c>
     </row>
     <row outlineLevel="0" r="55">
       <c r="A55" s="0" t="inlineStr">
@@ -2643,6 +2720,9 @@
       <c r="P55" s="0">
         <v>36.9996276855469</v>
       </c>
+      <c r="Q55" s="0">
+        <v>1144.85009765625</v>
+      </c>
     </row>
     <row outlineLevel="0" r="56">
       <c r="A56" s="0" t="inlineStr">
@@ -2692,6 +2772,9 @@
       <c r="P56" s="0">
         <v>36.9995971679688</v>
       </c>
+      <c r="Q56" s="0">
+        <v>1181.71813964844</v>
+      </c>
     </row>
     <row outlineLevel="0" r="57">
       <c r="A57" s="0" t="inlineStr">
@@ -2741,6 +2824,9 @@
       <c r="P57" s="0">
         <v>37.000146484375</v>
       </c>
+      <c r="Q57" s="0">
+        <v>1284.38659667969</v>
+      </c>
     </row>
     <row outlineLevel="0" r="58">
       <c r="A58" s="0" t="inlineStr">
@@ -2790,6 +2876,9 @@
       <c r="P58" s="0">
         <v>36.9997497558594</v>
       </c>
+      <c r="Q58" s="0">
+        <v>1663.357421875</v>
+      </c>
     </row>
     <row outlineLevel="0" r="59">
       <c r="A59" s="0" t="inlineStr">
@@ -2839,6 +2928,9 @@
       <c r="P59" s="0">
         <v>36.9997497558594</v>
       </c>
+      <c r="Q59" s="0">
+        <v>2339.91357421875</v>
+      </c>
     </row>
     <row outlineLevel="0" r="60">
       <c r="A60" s="0" t="inlineStr">
@@ -2888,6 +2980,9 @@
       <c r="P60" s="0">
         <v>36.9997192382813</v>
       </c>
+      <c r="Q60" s="0">
+        <v>2568.26147460938</v>
+      </c>
     </row>
     <row outlineLevel="0" r="61">
       <c r="A61" s="0" t="inlineStr">
@@ -2937,6 +3032,9 @@
       <c r="P61" s="0">
         <v>36.9999328613281</v>
       </c>
+      <c r="Q61" s="0">
+        <v>6736.78076171875</v>
+      </c>
     </row>
     <row outlineLevel="0" r="62">
       <c r="A62" s="0" t="inlineStr">
@@ -6896,6 +6994,9 @@
       <c r="P177" s="0">
         <v>36.999169921875</v>
       </c>
+      <c r="Q177" s="0">
+        <v>5.31044387817383</v>
+      </c>
     </row>
     <row outlineLevel="0" r="178">
       <c r="A178" s="0" t="inlineStr">
@@ -6945,6 +7046,9 @@
       <c r="P178" s="0">
         <v>37.0017944335938</v>
       </c>
+      <c r="Q178" s="0">
+        <v>4.96773290634155</v>
+      </c>
     </row>
     <row outlineLevel="0" r="179">
       <c r="A179" s="0" t="inlineStr">
@@ -6994,6 +7098,9 @@
       <c r="P179" s="0">
         <v>36.999658203125</v>
       </c>
+      <c r="Q179" s="0">
+        <v>4.68164300918579</v>
+      </c>
     </row>
     <row outlineLevel="0" r="180">
       <c r="A180" s="0" t="inlineStr">
@@ -7043,6 +7150,9 @@
       <c r="P180" s="0">
         <v>37.0015197753906</v>
       </c>
+      <c r="Q180" s="0">
+        <v>4.30665826797485</v>
+      </c>
     </row>
     <row outlineLevel="0" r="181">
       <c r="A181" s="0" t="inlineStr">
@@ -7092,6 +7202,9 @@
       <c r="P181" s="0">
         <v>36.9997192382813</v>
       </c>
+      <c r="Q181" s="0">
+        <v>3.83248400688171</v>
+      </c>
     </row>
     <row outlineLevel="0" r="182">
       <c r="A182" s="0" t="inlineStr">
@@ -7141,6 +7254,9 @@
       <c r="P182" s="0">
         <v>37.0000854492188</v>
       </c>
+      <c r="Q182" s="0">
+        <v>3.63321471214294</v>
+      </c>
     </row>
     <row outlineLevel="0" r="183">
       <c r="A183" s="0" t="inlineStr">
@@ -7190,6 +7306,9 @@
       <c r="P183" s="0">
         <v>37.0015502929688</v>
       </c>
+      <c r="Q183" s="0">
+        <v>3.34860968589783</v>
+      </c>
     </row>
     <row outlineLevel="0" r="184">
       <c r="A184" s="0" t="inlineStr">
@@ -7239,6 +7358,9 @@
       <c r="P184" s="0">
         <v>36.9999938964844</v>
       </c>
+      <c r="Q184" s="0">
+        <v>3.00636053085327</v>
+      </c>
     </row>
     <row outlineLevel="0" r="185">
       <c r="A185" s="0" t="inlineStr">
@@ -7288,6 +7410,9 @@
       <c r="P185" s="0">
         <v>36.9990173339844</v>
       </c>
+      <c r="Q185" s="0">
+        <v>3.11644768714905</v>
+      </c>
     </row>
     <row outlineLevel="0" r="186">
       <c r="A186" s="0" t="inlineStr">
@@ -7337,6 +7462,9 @@
       <c r="P186" s="0">
         <v>37.0003295898438</v>
       </c>
+      <c r="Q186" s="0">
+        <v>3.54057049751282</v>
+      </c>
     </row>
     <row outlineLevel="0" r="187">
       <c r="A187" s="0" t="inlineStr">
@@ -7386,6 +7514,9 @@
       <c r="P187" s="0">
         <v>37.0019165039063</v>
       </c>
+      <c r="Q187" s="0">
+        <v>4.20843124389648</v>
+      </c>
     </row>
     <row outlineLevel="0" r="188">
       <c r="A188" s="0" t="inlineStr">
@@ -7435,6 +7566,9 @@
       <c r="P188" s="0">
         <v>37.0011535644531</v>
       </c>
+      <c r="Q188" s="0">
+        <v>5.09793376922607</v>
+      </c>
     </row>
     <row outlineLevel="0" r="189">
       <c r="A189" s="0" t="inlineStr">
@@ -7484,6 +7618,9 @@
       <c r="P189" s="0">
         <v>36.9999633789063</v>
       </c>
+      <c r="Q189" s="0">
+        <v>6.17829751968384</v>
+      </c>
     </row>
     <row outlineLevel="0" r="190">
       <c r="A190" s="0" t="inlineStr">
@@ -7533,6 +7670,9 @@
       <c r="P190" s="0">
         <v>36.9994140625</v>
       </c>
+      <c r="Q190" s="0">
+        <v>7.36002254486084</v>
+      </c>
     </row>
     <row outlineLevel="0" r="191">
       <c r="A191" s="0" t="inlineStr">
@@ -7582,6 +7722,9 @@
       <c r="P191" s="0">
         <v>36.9994750976563</v>
       </c>
+      <c r="Q191" s="0">
+        <v>8.69153499603271</v>
+      </c>
     </row>
     <row outlineLevel="0" r="192">
       <c r="A192" s="0" t="inlineStr">
@@ -7631,6 +7774,9 @@
       <c r="P192" s="0">
         <v>36.9990173339844</v>
       </c>
+      <c r="Q192" s="0">
+        <v>10.1076946258545</v>
+      </c>
     </row>
     <row outlineLevel="0" r="193">
       <c r="A193" s="0" t="inlineStr">
@@ -7680,6 +7826,9 @@
       <c r="P193" s="0">
         <v>37.0004211425781</v>
       </c>
+      <c r="Q193" s="0">
+        <v>11.9211511611938</v>
+      </c>
     </row>
     <row outlineLevel="0" r="194">
       <c r="A194" s="0" t="inlineStr">
@@ -7729,6 +7878,9 @@
       <c r="P194" s="0">
         <v>37.0010314941406</v>
       </c>
+      <c r="Q194" s="0">
+        <v>13.7287378311157</v>
+      </c>
     </row>
     <row outlineLevel="0" r="195">
       <c r="A195" s="0" t="inlineStr">
@@ -7778,6 +7930,9 @@
       <c r="P195" s="0">
         <v>36.9992004394531</v>
       </c>
+      <c r="Q195" s="0">
+        <v>15.3239889144897</v>
+      </c>
     </row>
     <row outlineLevel="0" r="196">
       <c r="A196" s="0" t="inlineStr">
@@ -7827,6 +7982,9 @@
       <c r="P196" s="0">
         <v>37.0014282226563</v>
       </c>
+      <c r="Q196" s="0">
+        <v>19.1304264068604</v>
+      </c>
     </row>
     <row outlineLevel="0" r="197">
       <c r="A197" s="0" t="inlineStr">
@@ -7876,6 +8034,9 @@
       <c r="P197" s="0">
         <v>37.0001159667969</v>
       </c>
+      <c r="Q197" s="0">
+        <v>26.7191276550293</v>
+      </c>
     </row>
     <row outlineLevel="0" r="198">
       <c r="A198" s="0" t="inlineStr">
@@ -7925,6 +8086,9 @@
       <c r="P198" s="0">
         <v>36.9988647460938</v>
       </c>
+      <c r="Q198" s="0">
+        <v>41.6428108215332</v>
+      </c>
     </row>
     <row outlineLevel="0" r="199">
       <c r="A199" s="0" t="inlineStr">
@@ -7974,6 +8138,9 @@
       <c r="P199" s="0">
         <v>36.9993530273438</v>
       </c>
+      <c r="Q199" s="0">
+        <v>78.2843704223633</v>
+      </c>
     </row>
     <row outlineLevel="0" r="200">
       <c r="A200" s="0" t="inlineStr">
@@ -8023,6 +8190,9 @@
       <c r="P200" s="0">
         <v>36.9983764648438</v>
       </c>
+      <c r="Q200" s="0">
+        <v>120.717330932617</v>
+      </c>
     </row>
     <row outlineLevel="0" r="201">
       <c r="A201" s="0" t="inlineStr">
@@ -8072,6 +8242,9 @@
       <c r="P201" s="0">
         <v>36.9992919921875</v>
       </c>
+      <c r="Q201" s="0">
+        <v>284.934539794922</v>
+      </c>
     </row>
     <row outlineLevel="0" r="202">
       <c r="A202" s="0" t="inlineStr">
@@ -8121,6 +8294,9 @@
       <c r="P202" s="0">
         <v>37.000390625</v>
       </c>
+      <c r="Q202" s="0">
+        <v>557.142578125</v>
+      </c>
     </row>
     <row outlineLevel="0" r="203">
       <c r="A203" s="0" t="inlineStr">
@@ -8170,6 +8346,9 @@
       <c r="P203" s="0">
         <v>37.0000549316406</v>
       </c>
+      <c r="Q203" s="0">
+        <v>384.074615478516</v>
+      </c>
     </row>
     <row outlineLevel="0" r="204">
       <c r="A204" s="0" t="inlineStr">
@@ -8219,6 +8398,9 @@
       <c r="P204" s="0">
         <v>36.9993835449219</v>
       </c>
+      <c r="Q204" s="0">
+        <v>1098.1806640625</v>
+      </c>
     </row>
     <row outlineLevel="0" r="205">
       <c r="A205" s="0" t="inlineStr">
@@ -8268,6 +8450,9 @@
       <c r="P205" s="0">
         <v>36.9987121582031</v>
       </c>
+      <c r="Q205" s="0">
+        <v>2000.365234375</v>
+      </c>
     </row>
     <row outlineLevel="0" r="206">
       <c r="A206" s="0" t="inlineStr">
@@ -8317,6 +8502,9 @@
       <c r="P206" s="0">
         <v>36.9995056152344</v>
       </c>
+      <c r="Q206" s="0">
+        <v>10335.189453125</v>
+      </c>
     </row>
     <row outlineLevel="0" r="207">
       <c r="A207" s="0" t="inlineStr">
@@ -8365,6 +8553,9 @@
       </c>
       <c r="P207" s="0">
         <v>36.99990234375</v>
+      </c>
+      <c r="Q207" s="0">
+        <v>39652.4375</v>
       </c>
     </row>
   </sheetData>
